--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\PycharmProjects\pythonProject14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3D5F10-BD2C-417C-B569-FF1217B580AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACA6EA8-DDB0-435C-9C28-0C8FBE018485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
   <si>
     <t>Предусловия</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Появилось сообщение с просьбой описать бизнес. Ошибок нет, отображение корректно</t>
   </si>
   <si>
-    <t>Ввести описание</t>
-  </si>
-  <si>
     <t>Ввести команду /contacts или нажать соотвествующий кликабельный пункт меню</t>
   </si>
   <si>
@@ -244,6 +241,123 @@
   </si>
   <si>
     <t>Пользователь зарегестрирован в мессенджере telegram, выполнен вход в аккаунт, нет ограничений на аккаунте, стабильный доступ в сеть интернет</t>
+  </si>
+  <si>
+    <t>Ввести  длинное описание</t>
+  </si>
+  <si>
+    <t>Ввести корректное название</t>
+  </si>
+  <si>
+    <t>Выведется ошибка: Вы слишком подробно описали ваш бизнес, извините, многа букав не асилили. Сократите пожалуйста. Переадресации нет. Пользователь должен сам сменить меню</t>
+  </si>
+  <si>
+    <t>Появится сообщение: Модель успешно создана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Появятся кликбельные кнопки: {Имя бизнеса}, Добавить проект, Назад </t>
+  </si>
+  <si>
+    <t>Имя бизнеса соотвествует введёному при регистрации</t>
+  </si>
+  <si>
+    <t>Пользователь успешно добавил бизнес</t>
+  </si>
+  <si>
+    <t>Нажал кнопку Назад</t>
+  </si>
+  <si>
+    <t>Нажал кнопку Добавить проект</t>
+  </si>
+  <si>
+    <t>Успешно начат сценарий добавления. Соотвсвтует тест кейсу</t>
+  </si>
+  <si>
+    <t>Выполнен переход в главное меню</t>
+  </si>
+  <si>
+    <t>Пользователь в главном меню и имеет бизнес</t>
+  </si>
+  <si>
+    <t>Нажать кнопку каталог</t>
+  </si>
+  <si>
+    <t>Корректно и кликабельно показан список всех бизнесов</t>
+  </si>
+  <si>
+    <t>Пользователь в каталоге и имееет бизнес</t>
+  </si>
+  <si>
+    <t>Нажать на необходимый бизнес</t>
+  </si>
+  <si>
+    <t>Появится сообщение с описанием бизнеса, его названием и кнопки изменить бизнес и удалить бизнес</t>
+  </si>
+  <si>
+    <t>Пользователь внутри взаимодействия с бизнесом</t>
+  </si>
+  <si>
+    <t>Нажать изменить бизнес</t>
+  </si>
+  <si>
+    <t>Появится сообщение о вводе нового названия</t>
+  </si>
+  <si>
+    <t>Пользователь на этапе ввода нового названия</t>
+  </si>
+  <si>
+    <t>Появится сообщение с просьбой ввести новое описание</t>
+  </si>
+  <si>
+    <t>Пользователь на этапе ввода нового описания</t>
+  </si>
+  <si>
+    <t>Ввести некорректное описание (длинное)</t>
+  </si>
+  <si>
+    <t>Ввести корректное описание</t>
+  </si>
+  <si>
+    <t>Пользователь перейдет в каталог. Изменения автоматически будут применены</t>
+  </si>
+  <si>
+    <t>Изменить бизнес, удалить бизнес, назад</t>
+  </si>
+  <si>
+    <t>Пользователь в каталоге. У пользователя есть бизнес</t>
+  </si>
+  <si>
+    <t>Нажать на бизнес</t>
+  </si>
+  <si>
+    <t>Откроется карточка бизнеса: Название, описание. Под текстом будут кнопки</t>
+  </si>
+  <si>
+    <t>Пользователь в карточке бизнеса</t>
+  </si>
+  <si>
+    <t>Нажать удалить бизнес</t>
+  </si>
+  <si>
+    <t>Появится Вопрос о подтверждении с кликабельными вариантами</t>
+  </si>
+  <si>
+    <t>Подтвердить, отклонить</t>
+  </si>
+  <si>
+    <t>Пользователь в окне удаления модели бизнеса</t>
+  </si>
+  <si>
+    <t>Нажать отклонить</t>
+  </si>
+  <si>
+    <t>Появится сообщение об отмене удаления</t>
+  </si>
+  <si>
+    <t>Подтвердить удаление</t>
+  </si>
+  <si>
+    <t>Появится сообщение: Модель успешно удалена. Происходит переход в каталог</t>
   </si>
 </sst>
 </file>
@@ -279,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -294,6 +408,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,15 +696,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.77734375" customWidth="1"/>
+    <col min="1" max="1" width="47.21875" customWidth="1"/>
     <col min="2" max="2" width="78.33203125" customWidth="1"/>
     <col min="3" max="3" width="62.21875" customWidth="1"/>
   </cols>
@@ -602,7 +722,7 @@
     </row>
     <row r="2" spans="1:3" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -813,7 +933,10 @@
         <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -821,15 +944,15 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
         <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>29</v>
@@ -840,39 +963,39 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" t="s">
         <v>49</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>29</v>
@@ -883,13 +1006,13 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" t="s">
         <v>55</v>
-      </c>
-      <c r="C34" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -897,17 +1020,17 @@
         <v>12</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
         <v>57</v>
-      </c>
-      <c r="C35" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -915,17 +1038,17 @@
         <v>12</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -933,67 +1056,244 @@
         <v>12</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
         <v>61</v>
-      </c>
-      <c r="C39" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" t="s">
         <v>69</v>
-      </c>
-      <c r="C45" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="24">
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A58:A59"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B8:B12"/>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\PycharmProjects\pythonProject14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\PycharmProjects\pythonProject14\MAN_Alpha_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACA6EA8-DDB0-435C-9C28-0C8FBE018485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD40D991-673B-439B-B8E4-68ADDD667375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="181">
   <si>
     <t>Предусловия</t>
   </si>
@@ -358,6 +358,216 @@
   </si>
   <si>
     <t>Появится сообщение: Модель успешно удалена. Происходит переход в каталог</t>
+  </si>
+  <si>
+    <t>Пользователь в диалоге с ботом и имеет бизнес</t>
+  </si>
+  <si>
+    <t>Написать сообщение</t>
+  </si>
+  <si>
+    <t>Появится сообщение о перенаправление к ассистенту</t>
+  </si>
+  <si>
+    <t>Ассистент предложит все проекты на выбор</t>
+  </si>
+  <si>
+    <t>Названия проектов отображены корректно и кликабельны</t>
+  </si>
+  <si>
+    <t>Есть кликабельная кнопка назад</t>
+  </si>
+  <si>
+    <t>Пользователь в окне выбора при общени с ИИ</t>
+  </si>
+  <si>
+    <t>Нажать назад</t>
+  </si>
+  <si>
+    <t>Переадресация в главное меню</t>
+  </si>
+  <si>
+    <t>Выбрать бизнес</t>
+  </si>
+  <si>
+    <t>Появится сообщение: ассистент думает</t>
+  </si>
+  <si>
+    <t>Выведен ответ</t>
+  </si>
+  <si>
+    <t>Пользователь в диалоге с ботом</t>
+  </si>
+  <si>
+    <t>Быстро отправить несколько сообщений подряд</t>
+  </si>
+  <si>
+    <t>Появится ошибка: Слишком быстро, подожди немного.</t>
+  </si>
+  <si>
+    <t>Нажать Персональный юрист</t>
+  </si>
+  <si>
+    <t>Появится просьба подробно описать вопрос</t>
+  </si>
+  <si>
+    <t>Пользователь в опроснике описание вопроса юристу</t>
+  </si>
+  <si>
+    <t>Описать проблему</t>
+  </si>
+  <si>
+    <t>Бот выведет документы или ошибку, формат ответа может быть доработан в дальнейшем</t>
+  </si>
+  <si>
+    <t>Появится сообщение: Я вас понял, дайте секунду подумать</t>
+  </si>
+  <si>
+    <t>Пользователь зарегестрирован и находится в главном меню</t>
+  </si>
+  <si>
+    <t>Нажать ИИ инструменты</t>
+  </si>
+  <si>
+    <t>Появится сообщение: Какие ИИ инструменты вам интересны?</t>
+  </si>
+  <si>
+    <t>Доступны кликабельные варианты:</t>
+  </si>
+  <si>
+    <t>Персональный юрист</t>
+  </si>
+  <si>
+    <t>Генерация идей</t>
+  </si>
+  <si>
+    <t>Бизнес анализ</t>
+  </si>
+  <si>
+    <t>Структурирование информации</t>
+  </si>
+  <si>
+    <t>На главную</t>
+  </si>
+  <si>
+    <t>Пользователь в меню выбора ИИ инструментов</t>
+  </si>
+  <si>
+    <t>Нажать на главную</t>
+  </si>
+  <si>
+    <t>Пользователь обеспечил объём запросов, превышающий ожидаемый</t>
+  </si>
+  <si>
+    <t>Появится сообщение: Извините, бот немножко устал, попробуйте позже</t>
+  </si>
+  <si>
+    <t>Выполнение всех тест-кейсов проводится при наличии</t>
+  </si>
+  <si>
+    <t>Стабильного интернет подключения</t>
+  </si>
+  <si>
+    <t>Устройства, корректно работающим с ПО telegram</t>
+  </si>
+  <si>
+    <t>"Белого" аккаунта в telegram без ограничений</t>
+  </si>
+  <si>
+    <t>В случае неожиданных сценариев или ошибок появляется соотвествующий баннер о нераспознанном действии</t>
+  </si>
+  <si>
+    <t>Нажать Генерация идей</t>
+  </si>
+  <si>
+    <t>Появится сообщение: Пожалуйста, опишите ваш вопрос или идею для анализа:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользователь в меню описания идеи </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Описать идею корректно </t>
+  </si>
+  <si>
+    <t>Бот выдаст сообщение с рекомендациями и оценкой</t>
+  </si>
+  <si>
+    <t>Нажать структурирование информации</t>
+  </si>
+  <si>
+    <t>Появится сообщение: напишите информацию для структурирования боту</t>
+  </si>
+  <si>
+    <t>Пользователь в окне ввода сообщения для структурирования</t>
+  </si>
+  <si>
+    <t>Ввести короткое сообщение, например Кофейня на вернде хочу открыть чтобы было много днег</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бот сообщит: К сожалению, текст слишком краток и не содержит конкретной информации, </t>
+  </si>
+  <si>
+    <t>Под сообщением появится кликабельное главное меню</t>
+  </si>
+  <si>
+    <t>Пользователь в окне вывода сообщения о короткой идеи для структурирования</t>
+  </si>
+  <si>
+    <t>Проверить работоспособность кнопок</t>
+  </si>
+  <si>
+    <t>Все кнопки ведут себя корректно (соотвествуеют тест-кейсам выше)</t>
+  </si>
+  <si>
+    <t>Ввести корректную идею</t>
+  </si>
+  <si>
+    <t>Бот выдаст структутрированное сообщение, по мотивам введёной идеи</t>
+  </si>
+  <si>
+    <t>Выбрать Бизнес-анализ</t>
+  </si>
+  <si>
+    <t>Swot анализ, Business Model Canvas, Customer Journey Map, Value Proposition Canvas, Pest анализ, назад</t>
+  </si>
+  <si>
+    <t>Пользователь в меню выбора бизнес инструментов</t>
+  </si>
+  <si>
+    <t>Корректная переадресация в главное меню</t>
+  </si>
+  <si>
+    <t>Выбрать тип анализа</t>
+  </si>
+  <si>
+    <t>Появится сообщение: В подробностях опишите, что нам необходимо знать. Также, при анализе будет учтена история нашего диалога</t>
+  </si>
+  <si>
+    <t>Пользователь на этапе ввода описания бизнеса</t>
+  </si>
+  <si>
+    <t>Ввести короткое описание, не раскрыв суть, например: Хочу много денег</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Появится сообщение: К какому из проектов относится данный вопрос. </t>
+  </si>
+  <si>
+    <t>Пользователь на этапе выбора бизнеса после некорректного описания</t>
+  </si>
+  <si>
+    <t>Корректно и кликабельно показан список всех бизнесов и кнопка назад</t>
+  </si>
+  <si>
+    <t>Появится сообщение: Нет предоставленной информации. Пожалуйста, поделитесь необходимыми данными об оффлайн бизнесе.</t>
+  </si>
+  <si>
+    <t>Ввести подробное описание</t>
+  </si>
+  <si>
+    <t>Пользователь на этапе выбора бизнеса после корректного описания</t>
+  </si>
+  <si>
+    <t>Проведен анализ</t>
   </si>
 </sst>
 </file>
@@ -373,12 +583,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -393,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -416,6 +632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -696,17 +913,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47.21875" customWidth="1"/>
     <col min="2" max="2" width="78.33203125" customWidth="1"/>
-    <col min="3" max="3" width="62.21875" customWidth="1"/>
+    <col min="3" max="3" width="107.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1247,10 +1464,10 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C60" t="s">
@@ -1258,17 +1475,17 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
       <c r="C61" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C62" t="s">
@@ -1276,30 +1493,435 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C63" t="s">
         <v>110</v>
       </c>
     </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="5"/>
+      <c r="B74" s="7"/>
+      <c r="C74" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="5"/>
+      <c r="B76" s="7"/>
+      <c r="C76" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="5"/>
+      <c r="B77" s="7"/>
+      <c r="C77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="5"/>
+      <c r="B78" s="7"/>
+      <c r="C78" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="5"/>
+      <c r="B79" s="7"/>
+      <c r="C79" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="5"/>
+      <c r="B80" s="7"/>
+      <c r="C80" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="5"/>
+      <c r="B81" s="7"/>
+      <c r="C81" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C84" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>157</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C90" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C91" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C96" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="5"/>
+      <c r="B97" s="7"/>
+      <c r="C97" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>175</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>175</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="5"/>
+      <c r="B101" s="7"/>
+      <c r="C101" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>179</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C102" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>179</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="A13:A19"/>
+  <mergeCells count="40">
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B75:B81"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
     <mergeCell ref="B39:B44"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="B45:B46"/>
@@ -1312,6 +1934,18 @@
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A58:A59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\PycharmProjects\pythonProject14\MAN_Alpha_bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\PycharmProjects\pythonProject14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD40D991-673B-439B-B8E4-68ADDD667375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4DF550-81FF-4A4B-A9AB-895D5E733B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="158">
   <si>
     <t>Предусловия</t>
   </si>
@@ -360,214 +360,145 @@
     <t>Появится сообщение: Модель успешно удалена. Происходит переход в каталог</t>
   </si>
   <si>
-    <t>Пользователь в диалоге с ботом и имеет бизнес</t>
-  </si>
-  <si>
-    <t>Написать сообщение</t>
-  </si>
-  <si>
-    <t>Появится сообщение о перенаправление к ассистенту</t>
-  </si>
-  <si>
-    <t>Ассистент предложит все проекты на выбор</t>
-  </si>
-  <si>
-    <t>Названия проектов отображены корректно и кликабельны</t>
-  </si>
-  <si>
-    <t>Есть кликабельная кнопка назад</t>
-  </si>
-  <si>
-    <t>Пользователь в окне выбора при общени с ИИ</t>
-  </si>
-  <si>
-    <t>Нажать назад</t>
-  </si>
-  <si>
-    <t>Переадресация в главное меню</t>
-  </si>
-  <si>
-    <t>Выбрать бизнес</t>
-  </si>
-  <si>
-    <t>Появится сообщение: ассистент думает</t>
-  </si>
-  <si>
-    <t>Выведен ответ</t>
-  </si>
-  <si>
-    <t>Пользователь в диалоге с ботом</t>
-  </si>
-  <si>
-    <t>Быстро отправить несколько сообщений подряд</t>
-  </si>
-  <si>
-    <t>Появится ошибка: Слишком быстро, подожди немного.</t>
-  </si>
-  <si>
-    <t>Нажать Персональный юрист</t>
-  </si>
-  <si>
-    <t>Появится просьба подробно описать вопрос</t>
-  </si>
-  <si>
-    <t>Пользователь в опроснике описание вопроса юристу</t>
-  </si>
-  <si>
-    <t>Описать проблему</t>
-  </si>
-  <si>
-    <t>Бот выведет документы или ошибку, формат ответа может быть доработан в дальнейшем</t>
-  </si>
-  <si>
-    <t>Появится сообщение: Я вас понял, дайте секунду подумать</t>
-  </si>
-  <si>
-    <t>Пользователь зарегестрирован и находится в главном меню</t>
-  </si>
-  <si>
-    <t>Нажать ИИ инструменты</t>
-  </si>
-  <si>
-    <t>Появится сообщение: Какие ИИ инструменты вам интересны?</t>
-  </si>
-  <si>
-    <t>Доступны кликабельные варианты:</t>
-  </si>
-  <si>
-    <t>Персональный юрист</t>
-  </si>
-  <si>
-    <t>Генерация идей</t>
-  </si>
-  <si>
-    <t>Бизнес анализ</t>
-  </si>
-  <si>
-    <t>Структурирование информации</t>
-  </si>
-  <si>
-    <t>На главную</t>
-  </si>
-  <si>
-    <t>Пользователь в меню выбора ИИ инструментов</t>
-  </si>
-  <si>
-    <t>Нажать на главную</t>
-  </si>
-  <si>
-    <t>Пользователь обеспечил объём запросов, превышающий ожидаемый</t>
-  </si>
-  <si>
-    <t>Появится сообщение: Извините, бот немножко устал, попробуйте позже</t>
-  </si>
-  <si>
-    <t>Выполнение всех тест-кейсов проводится при наличии</t>
-  </si>
-  <si>
-    <t>Стабильного интернет подключения</t>
-  </si>
-  <si>
-    <t>Устройства, корректно работающим с ПО telegram</t>
-  </si>
-  <si>
-    <t>"Белого" аккаунта в telegram без ограничений</t>
-  </si>
-  <si>
-    <t>В случае неожиданных сценариев или ошибок появляется соотвествующий баннер о нераспознанном действии</t>
-  </si>
-  <si>
-    <t>Нажать Генерация идей</t>
-  </si>
-  <si>
-    <t>Появится сообщение: Пожалуйста, опишите ваш вопрос или идею для анализа:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пользователь в меню описания идеи </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Описать идею корректно </t>
-  </si>
-  <si>
-    <t>Бот выдаст сообщение с рекомендациями и оценкой</t>
-  </si>
-  <si>
-    <t>Нажать структурирование информации</t>
-  </si>
-  <si>
-    <t>Появится сообщение: напишите информацию для структурирования боту</t>
-  </si>
-  <si>
-    <t>Пользователь в окне ввода сообщения для структурирования</t>
-  </si>
-  <si>
-    <t>Ввести короткое сообщение, например Кофейня на вернде хочу открыть чтобы было много днег</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бот сообщит: К сожалению, текст слишком краток и не содержит конкретной информации, </t>
-  </si>
-  <si>
-    <t>Под сообщением появится кликабельное главное меню</t>
-  </si>
-  <si>
-    <t>Пользователь в окне вывода сообщения о короткой идеи для структурирования</t>
-  </si>
-  <si>
-    <t>Проверить работоспособность кнопок</t>
-  </si>
-  <si>
-    <t>Все кнопки ведут себя корректно (соотвествуеют тест-кейсам выше)</t>
-  </si>
-  <si>
-    <t>Ввести корректную идею</t>
-  </si>
-  <si>
-    <t>Бот выдаст структутрированное сообщение, по мотивам введёной идеи</t>
-  </si>
-  <si>
-    <t>Выбрать Бизнес-анализ</t>
-  </si>
-  <si>
-    <t>Swot анализ, Business Model Canvas, Customer Journey Map, Value Proposition Canvas, Pest анализ, назад</t>
-  </si>
-  <si>
-    <t>Пользователь в меню выбора бизнес инструментов</t>
-  </si>
-  <si>
-    <t>Корректная переадресация в главное меню</t>
-  </si>
-  <si>
-    <t>Выбрать тип анализа</t>
-  </si>
-  <si>
-    <t>Появится сообщение: В подробностях опишите, что нам необходимо знать. Также, при анализе будет учтена история нашего диалога</t>
-  </si>
-  <si>
-    <t>Пользователь на этапе ввода описания бизнеса</t>
-  </si>
-  <si>
-    <t>Ввести короткое описание, не раскрыв суть, например: Хочу много денег</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Появится сообщение: К какому из проектов относится данный вопрос. </t>
-  </si>
-  <si>
-    <t>Пользователь на этапе выбора бизнеса после некорректного описания</t>
-  </si>
-  <si>
-    <t>Корректно и кликабельно показан список всех бизнесов и кнопка назад</t>
-  </si>
-  <si>
-    <t>Появится сообщение: Нет предоставленной информации. Пожалуйста, поделитесь необходимыми данными об оффлайн бизнесе.</t>
-  </si>
-  <si>
-    <t>Ввести подробное описание</t>
-  </si>
-  <si>
-    <t>Пользователь на этапе выбора бизнеса после корректного описания</t>
-  </si>
-  <si>
-    <t>Проведен анализ</t>
+    <t>Запущена активность оценки пользователем</t>
+  </si>
+  <si>
+    <t>Появились кликабельные кнопки с оценками</t>
+  </si>
+  <si>
+    <t>Пользователь в процессе прохождения оценки (1 этап)</t>
+  </si>
+  <si>
+    <t>Нажать кнопку с оценкой</t>
+  </si>
+  <si>
+    <t>Появился новый вопрос (этап 2) Как вы оцениваете скорость работы сервиса?</t>
+  </si>
+  <si>
+    <t>Появилось соотвествующее сообщение (этап 1) Как вы оцениваете качество ответов модели?</t>
+  </si>
+  <si>
+    <t>Пользователь в процессе прохождения оценки (2 этап)</t>
+  </si>
+  <si>
+    <t>Появилось соотвествующее сообщение (этап 2) Как вы оцениваете скорость работы сервиса?</t>
+  </si>
+  <si>
+    <t>Появился новый вопрос (этап 3) Как вы оцениваете общее удобство сервиса?</t>
+  </si>
+  <si>
+    <t>Пользователь в процессе прохождения оценки (3 этап)</t>
+  </si>
+  <si>
+    <t>Появилось соотвествующее сообщение (этап 2) Как вы оцениваете общее удобство сервиса?</t>
+  </si>
+  <si>
+    <t>Появилось сообщение о завершении опроса</t>
+  </si>
+  <si>
+    <t>Опрос завершен</t>
+  </si>
+  <si>
+    <t>Ожидать</t>
+  </si>
+  <si>
+    <t>Появилось сообщение о том, что скоро будет показан котик и кликабельная кнопка главное меню</t>
+  </si>
+  <si>
+    <t>Корректно показан котик</t>
+  </si>
+  <si>
+    <t>В дополнение к информации о завершение появилось сообщение о возможности похвалить или поругать и кликабельная кнопка уйти</t>
+  </si>
+  <si>
+    <t>Опрос завершен + переход в главное меню</t>
+  </si>
+  <si>
+    <t>Нажать кнопку Уйти, появившуюся ранее</t>
+  </si>
+  <si>
+    <t>Нажать кнопку Уйти</t>
+  </si>
+  <si>
+    <t>Опрос завершен + переход по уйти</t>
+  </si>
+  <si>
+    <t>Нажать кнопку Главное меню, появившуюся ранее</t>
+  </si>
+  <si>
+    <t>Новый пользователь</t>
+  </si>
+  <si>
+    <t>Зайти в новый диалог</t>
+  </si>
+  <si>
+    <t>Показана привественная картинка</t>
+  </si>
+  <si>
+    <t>Доступны кликабельные кнопки, работа которых описана ранее</t>
+  </si>
+  <si>
+    <t>Нажать /start</t>
+  </si>
+  <si>
+    <t>Ввести корректное имя</t>
+  </si>
+  <si>
+    <t>Появится сообщение: Имя получено и просьба ввести почту</t>
+  </si>
+  <si>
+    <t>Появится приветственное сообщение,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Уведомление об отсутствии регистрации и просьба ввести имя</t>
+  </si>
+  <si>
+    <t>Ввести корректную почту</t>
+  </si>
+  <si>
+    <t>Появится сообщение: Почта получена и просьба ввести пароль</t>
+  </si>
+  <si>
+    <t>Регистрация на стадии ввода имени</t>
+  </si>
+  <si>
+    <t>Регистрация на стадии ввода почты</t>
+  </si>
+  <si>
+    <t>Регистрация на стадии ввода пароля</t>
+  </si>
+  <si>
+    <t>Ввести пароль</t>
+  </si>
+  <si>
+    <t>Появится сообщение: Пароль получен</t>
+  </si>
+  <si>
+    <t>Появится уведомление об успешной регистрации</t>
+  </si>
+  <si>
+    <t>Появится кликабельная кнопка Главное меню</t>
+  </si>
+  <si>
+    <t>Регистрация завершена</t>
+  </si>
+  <si>
+    <t>Нажать главное меню</t>
+  </si>
+  <si>
+    <t>Запущена рассылка</t>
+  </si>
+  <si>
+    <t>Зайти в диалог</t>
+  </si>
+  <si>
+    <t>Появится сообщение, передаваемое администратором рассылки</t>
+  </si>
+  <si>
+    <t>Выполнить заведомо некорректное действие, ведущие к ошибке</t>
+  </si>
+  <si>
+    <t>Появится котик с подписью о ошибке 404</t>
   </si>
 </sst>
 </file>
@@ -583,18 +514,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -609,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -629,10 +554,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -913,17 +834,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47.21875" customWidth="1"/>
     <col min="2" max="2" width="78.33203125" customWidth="1"/>
-    <col min="3" max="3" width="107.44140625" customWidth="1"/>
+    <col min="3" max="3" width="62.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1504,424 +1425,274 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" t="s">
         <v>112</v>
       </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
+      <c r="B65" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="C65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
       <c r="C67" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>117</v>
+      <c r="A68" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B69" s="5" t="s">
+      <c r="A69" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="B69" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="C69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
+      <c r="A70" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C71" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B75" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="7"/>
-      <c r="C74" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
+      <c r="B76" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="C76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C75" t="s">
+      <c r="B77" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="7"/>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="7"/>
-      <c r="C77" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="7"/>
-      <c r="C78" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="7"/>
       <c r="C79" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
-      <c r="B80" s="7"/>
+      <c r="B80" s="5"/>
       <c r="C80" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
-      <c r="B81" s="7"/>
-      <c r="C81" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>143</v>
+      <c r="A83" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="C83" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B84" s="2" t="s">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" t="s">
         <v>150</v>
       </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+      <c r="B86" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C85" t="s">
+      <c r="B87" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B86" s="2" t="s">
+      <c r="C87" t="s">
         <v>155</v>
       </c>
-      <c r="C86" t="s">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
+      <c r="C88" t="s">
         <v>157</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C87" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C89" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>157</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C90" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C91" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>168</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C94" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>168</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C95" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C96" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
-      <c r="B97" s="7"/>
-      <c r="C97" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>175</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C98" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>175</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C99" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C100" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
-      <c r="B101" s="7"/>
-      <c r="C101" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>179</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C102" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>179</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C103" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>149</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B75:B81"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
+  <mergeCells count="28">
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="A83:A85"/>
     <mergeCell ref="B39:B44"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="B45:B46"/>
